--- a/Formatos/Clasificacion_suelos.xlsx
+++ b/Formatos/Clasificacion_suelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Alcaldia\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F16921-1180-4283-A6AF-30B6D68AACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC12215-95A8-40A1-AA02-D4E48B80E977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="1740" windowWidth="17310" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">

--- a/Formatos/Clasificacion_suelos.xlsx
+++ b/Formatos/Clasificacion_suelos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Alcaldia\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A95F022-30A1-43EA-9E90-380D5EF7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0217824E-B249-430A-B9F3-57C1345FAE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="122">
   <si>
     <t>Principal</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Pedregal</t>
   </si>
   <si>
-    <t>Misericordia</t>
-  </si>
-  <si>
     <t>Remanso</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Sector calle 50 Desde Machado Hasta san Juan</t>
   </si>
   <si>
-    <t>Comercial primero y segundo piso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Institucional </t>
   </si>
   <si>
@@ -359,12 +353,6 @@
     <t>Institucional, servicios</t>
   </si>
   <si>
-    <t>EL ZARZAL SUPERIOR</t>
-  </si>
-  <si>
-    <t>EL NORAL SUBURBANO</t>
-  </si>
-  <si>
     <t>Vivienda, Múltiple</t>
   </si>
   <si>
@@ -399,6 +387,21 @@
   </si>
   <si>
     <t>Sector los montoya y clarisas</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>El Noral Suburbano</t>
+  </si>
+  <si>
+    <t>El Zarzal Superior</t>
+  </si>
+  <si>
+    <t>Articulo 16, Articulo 123, Articulo 125, Articulo 77, Articulo 188, Articulo 189</t>
+  </si>
+  <si>
+    <t>La Misericordia</t>
   </si>
 </sst>
 </file>
@@ -784,8 +787,8 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -815,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,14 +829,14 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,50 +847,50 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -898,14 +901,14 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -916,14 +919,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,14 +937,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -952,14 +955,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -970,27 +973,27 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>11</v>
@@ -999,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1010,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>11</v>
@@ -1019,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1030,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
@@ -1039,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1050,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -1059,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
@@ -1079,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,14 +1093,14 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>11</v>
@@ -1117,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>11</v>
@@ -1137,27 +1140,27 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1171,21 +1174,21 @@
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -1197,27 +1200,27 @@
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1225,10 +1228,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
@@ -1237,7 +1240,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1245,80 +1248,80 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>6</v>
@@ -1331,670 +1334,678 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2"/>
     </row>
